--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F668D5A9-4BF9-3942-97EA-EF361C99A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49243F7C-51A3-134B-A8C7-872BC4AA4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2020" yWindow="880" windowWidth="16460" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="-36980" yWindow="740" windowWidth="20360" windowHeight="19020" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="45">
   <si>
     <t>week_start</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Control Flow (for loops), mutability, random</t>
+  </si>
+  <si>
+    <t>fall 2024</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -238,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +284,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -384,7 +390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,6 +1320,261 @@
         <v>6</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45530</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45539</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45546</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45171</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45553</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45560</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45194</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45569</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45576</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45583</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45590</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45222</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45597</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45604</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45240</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45609</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45616</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45616</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45628</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45258</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45635</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49243F7C-51A3-134B-A8C7-872BC4AA4D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D283225-F998-E745-8F65-AC36927F7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36980" yWindow="740" windowWidth="20360" windowHeight="19020" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="-36200" yWindow="520" windowWidth="25860" windowHeight="19060" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
   <si>
     <t>week_start</t>
   </si>
@@ -171,6 +171,24 @@
   </si>
   <si>
     <t>TBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-09-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-11-11</t>
   </si>
 </sst>
 </file>
@@ -542,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1358,8 +1376,8 @@
       <c r="C52" s="1">
         <v>45546</v>
       </c>
-      <c r="E52" s="2">
-        <v>45171</v>
+      <c r="E52" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -1395,8 +1413,8 @@
       <c r="D54" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="1">
-        <v>45194</v>
+      <c r="E54" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="H54" t="s">
         <v>21</v>
@@ -1457,8 +1475,8 @@
       <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="1">
-        <v>45222</v>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -1488,8 +1506,8 @@
       <c r="C60" s="1">
         <v>45604</v>
       </c>
-      <c r="E60" s="1">
-        <v>45240</v>
+      <c r="E60" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
@@ -1525,8 +1543,8 @@
       <c r="D62" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="1">
-        <v>45616</v>
+      <c r="E62" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -1542,8 +1560,8 @@
       <c r="C63" s="1">
         <v>45628</v>
       </c>
-      <c r="E63" s="1">
-        <v>45258</v>
+      <c r="E63" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D283225-F998-E745-8F65-AC36927F7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9878F3-92D8-8B46-B14D-FA77E71421BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36200" yWindow="520" windowWidth="25860" windowHeight="19060" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t xml:space="preserve"> 2024-09-02</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2024-09-25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2024-10-23</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 2024-11-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-10-02</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="136" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,12 +1410,6 @@
       <c r="C54" s="1">
         <v>45560</v>
       </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H54" t="s">
         <v>21</v>
       </c>
@@ -1430,6 +1424,12 @@
       <c r="C55" s="1">
         <v>45569</v>
       </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="H55" t="s">
         <v>22</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -1507,7 +1507,7 @@
         <v>45604</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
@@ -1544,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -1561,7 +1561,7 @@
         <v>45628</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9878F3-92D8-8B46-B14D-FA77E71421BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F3D6E0-3631-1C4B-BC43-A41AE4ACF9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -170,9 +170,6 @@
     <t>fall 2024</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2024-09-02</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 2024-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2024-12-13</t>
   </si>
 </sst>
 </file>
@@ -240,10 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +562,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="136" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1378,7 @@
         <v>45546</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -1428,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s">
         <v>22</v>
@@ -1476,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -1507,7 +1508,7 @@
         <v>45604</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G60" t="s">
         <v>14</v>
@@ -1544,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
         <v>28</v>
@@ -1561,7 +1562,7 @@
         <v>45628</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
@@ -1583,8 +1584,8 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>44</v>
+      <c r="E64" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
